--- a/biology/Botanique/Astragalus_acutirostris/Astragalus_acutirostris.xlsx
+++ b/biology/Botanique/Astragalus_acutirostris/Astragalus_acutirostris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus acutirostris est une espèce de plante à fleurs de la famille des Fabaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante annuelle rampante ; ses rameaux dressés dépassent rarement 30 cm de hauteur[2]. Ses feuilles sont composées de 7 à 15 folioles de 2 à 8 mm de long[2], de forme oblongue, présentant généralement une petite indentation à leur extrémité. 
-Les fleurs apparaissent en Avril-Mai. Elles sont disposées en grappe peu dense (1 à 6 fleurs par grappe[2]). Leurs pétales sont blancs touchés de rose. L'étendard (grand pétale dorsal recourbé à environ 45°) mesure de 4,7 à 7 mm de long[2] alors que la carène (les 2 pétales ventraux soudés) mesure de 4,3 5,8 mm de long[2]. 
-Les fruits sont des gousses à déhiscence longitudinale, de 12 à 30 mm de long pour 2 à 3 mm de large[2], légèrement incurvées, à parois assez fine, à section triangulaire et présentant 2 loges. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle rampante ; ses rameaux dressés dépassent rarement 30 cm de hauteur. Ses feuilles sont composées de 7 à 15 folioles de 2 à 8 mm de long, de forme oblongue, présentant généralement une petite indentation à leur extrémité. 
+Les fleurs apparaissent en Avril-Mai. Elles sont disposées en grappe peu dense (1 à 6 fleurs par grappe). Leurs pétales sont blancs touchés de rose. L'étendard (grand pétale dorsal recourbé à environ 45°) mesure de 4,7 à 7 mm de long alors que la carène (les 2 pétales ventraux soudés) mesure de 4,3 5,8 mm de long. 
+Les fruits sont des gousses à déhiscence longitudinale, de 12 à 30 mm de long pour 2 à 3 mm de large, légèrement incurvées, à parois assez fine, à section triangulaire et présentant 2 loges. 
 Elles est souvent confondue avec une espèce proche poussant dans les mêmes zones géographiques, Astragalus nuttallianus, dont les fruits, plus incurvés surtout à leur base, tombent moins vite et sont plus sombres à maturité, et dont les folioles ont une extrémité plus généralement pointue. 
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante pousse sur terrains sablonneux ou rocailleux, à des altitudes allant de 200 m à 2100 m[2], dans le sud-ouest des États-Unis (Californie et Nevada). 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse sur terrains sablonneux ou rocailleux, à des altitudes allant de 200 m à 2100 m, dans le sud-ouest des États-Unis (Californie et Nevada). 
 </t>
         </is>
       </c>
